--- a/xl_data/otero-vfiaf-CENSORED.xlsx
+++ b/xl_data/otero-vfiaf-CENSORED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\damon\COFC\bad-author\xl_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23242E6-8153-4442-8EE3-4226C148CC3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E0415B-9F82-4245-80F1-6311CA14D8E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -600,7 +600,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -894,7 +894,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection sqref="A1:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1032,38 +1032,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="6">
-        <f>SUM(B2:B4)</f>
+        <f t="shared" ref="B5:I5" si="0">SUM(B2:B4)</f>
         <v>0</v>
       </c>
       <c r="C5" s="6">
-        <f>SUM(C2:C4)</f>
+        <f t="shared" si="0"/>
         <v>3.7548875021634691</v>
       </c>
       <c r="D5" s="6">
-        <f>SUM(D2:D4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="6">
-        <f>SUM(E2:E4)</f>
+        <f t="shared" si="0"/>
         <v>1.5849625007211561</v>
       </c>
       <c r="F5" s="6">
-        <f>SUM(F2:F4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5" s="6">
-        <f>SUM(G2:G4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="6">
-        <f>SUM(H2:H4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="6">
-        <f>SUM(I2:I4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="1"/>
@@ -1237,7 +1237,7 @@
   <dimension ref="A1:AC9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="AC2" s="4">
-        <f>SUM(B2:AB2)</f>
+        <f t="shared" ref="AC2:AC8" si="0">SUM(B2:AB2)</f>
         <v>9.9657842846620888</v>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="4">
-        <f>SUM(B3:AB3)</f>
+        <f t="shared" si="0"/>
         <v>3.9068905956085191</v>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="AC4" s="4">
-        <f>SUM(B4:AB4)</f>
+        <f t="shared" si="0"/>
         <v>39.931317868527429</v>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="AC5" s="4">
-        <f>SUM(B5:AB5)</f>
+        <f t="shared" si="0"/>
         <v>38.951090399999998</v>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="AC6" s="4">
-        <f>SUM(B6:AB6)</f>
+        <f t="shared" si="0"/>
         <v>3.9068905956085191</v>
       </c>
     </row>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="AC7" s="4">
-        <f>SUM(B7:AB7)</f>
+        <f t="shared" si="0"/>
         <v>6.6438561897747261</v>
       </c>
     </row>
@@ -1958,118 +1958,118 @@
         <v>0</v>
       </c>
       <c r="AC8" s="4">
-        <f>SUM(B8:AB8)</f>
+        <f t="shared" si="0"/>
         <v>19.019996355476668</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="6">
-        <f>SUM(B2:B8)</f>
+        <f t="shared" ref="B9:AB9" si="1">SUM(B2:B8)</f>
         <v>6.6438561897747253</v>
       </c>
       <c r="C9" s="6">
-        <f>SUM(C2:C8)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D9" s="6">
-        <f>SUM(D2:D8)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E9" s="6">
-        <f>SUM(E2:E8)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F9" s="6">
-        <f>SUM(F2:F8)</f>
+        <f t="shared" si="1"/>
         <v>3.813781191217037</v>
       </c>
       <c r="G9" s="6">
-        <f>SUM(G2:G8)</f>
+        <f t="shared" si="1"/>
         <v>10.105961942710348</v>
       </c>
       <c r="H9" s="6">
-        <f>SUM(H2:H8)</f>
+        <f t="shared" si="1"/>
         <v>5.9133168647679515</v>
       </c>
       <c r="I9" s="6">
-        <f>SUM(I2:I8)</f>
+        <f t="shared" si="1"/>
         <v>1.9068905956085189</v>
       </c>
       <c r="J9" s="6">
-        <f>SUM(J2:J8)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K9" s="6">
-        <f>SUM(K2:K8)</f>
+        <f t="shared" si="1"/>
         <v>1.0995356735509141</v>
       </c>
       <c r="L9" s="6">
-        <f>SUM(L2:L8)</f>
+        <f t="shared" si="1"/>
         <v>1.0995356735509141</v>
       </c>
       <c r="M9" s="6">
-        <f>SUM(M2:M8)</f>
+        <f t="shared" si="1"/>
         <v>1.9068905956085189</v>
       </c>
       <c r="N9" s="6">
-        <f>SUM(N2:N8)</f>
+        <f t="shared" si="1"/>
         <v>5.5209994419891917</v>
       </c>
       <c r="O9" s="6">
-        <f>SUM(O2:O8)</f>
+        <f t="shared" si="1"/>
         <v>18.493035103263711</v>
       </c>
       <c r="P9" s="6">
-        <f>SUM(P2:P8)</f>
+        <f t="shared" si="1"/>
         <v>3.813781191217037</v>
       </c>
       <c r="Q9" s="6">
-        <f>SUM(Q2:Q8)</f>
+        <f t="shared" si="1"/>
         <v>10.199071347101828</v>
       </c>
       <c r="R9" s="6">
-        <f>SUM(R2:R8)</f>
+        <f t="shared" si="1"/>
         <v>6.6205351155401058</v>
       </c>
       <c r="S9" s="6">
-        <f>SUM(S2:S8)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T9" s="6">
-        <f>SUM(T2:T8)</f>
+        <f t="shared" si="1"/>
         <v>1.0995356735509141</v>
       </c>
       <c r="U9" s="6">
-        <f>SUM(U2:U8)</f>
+        <f t="shared" si="1"/>
         <v>5.9068905956085196</v>
       </c>
       <c r="V9" s="6">
-        <f>SUM(V2:V8)</f>
+        <f t="shared" si="1"/>
         <v>9.754319057</v>
       </c>
       <c r="W9" s="6">
-        <f>SUM(W2:W8)</f>
+        <f t="shared" si="1"/>
         <v>2.0995356735509141</v>
       </c>
       <c r="X9" s="6">
-        <f>SUM(X2:X8)</f>
+        <f t="shared" si="1"/>
         <v>3.3219280948873631</v>
       </c>
       <c r="Y9" s="6">
-        <f>SUM(Y2:Y8)</f>
+        <f t="shared" si="1"/>
         <v>1.0995356735509141</v>
       </c>
       <c r="Z9" s="6">
-        <f>SUM(Z2:Z8)</f>
+        <f t="shared" si="1"/>
         <v>1.9068905956085189</v>
       </c>
       <c r="AA9" s="6">
-        <f>SUM(AA2:AA8)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AB9" s="6">
-        <f>SUM(AB2:AB8)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AC9" s="1"/>
